--- a/自然码双拼课程安排.xlsx
+++ b/自然码双拼课程安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28380" windowHeight="14540" activeTab="2"/>
+    <workbookView windowWidth="28000" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,31 +113,31 @@
     <t>第9天</t>
   </si>
   <si>
-    <t>第13课 短文1</t>
+    <t>第13课 文章练习1</t>
   </si>
   <si>
     <t>第10天</t>
   </si>
   <si>
-    <t>第14课 短文2</t>
+    <t>第14课 文章练习2</t>
   </si>
   <si>
     <t>第11天</t>
   </si>
   <si>
-    <t>第15课 短文3</t>
+    <t>第15课 文章练习3</t>
   </si>
   <si>
     <t>第12天</t>
   </si>
   <si>
-    <t>第16课 短文4</t>
+    <t>第16课 文章练习4</t>
   </si>
   <si>
     <t>第13天</t>
   </si>
   <si>
-    <t>第17课 短文5</t>
+    <t>第17课 文章练习5</t>
   </si>
   <si>
     <t>b</t>
@@ -3799,7 +3799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3838,25 +3838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4220,7 +4214,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4244,16 +4238,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4262,89 +4256,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4426,19 +4420,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4968,8 +4959,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -5002,8 +4993,8 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:9">
       <c r="A2" s="26" t="s">
@@ -5023,8 +5014,8 @@
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="1:9">
       <c r="A3" s="26" t="s">
@@ -5044,29 +5035,29 @@
       <c r="G3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:9">
       <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:9">
       <c r="A5" s="26" t="s">
@@ -5082,10 +5073,10 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5103,10 +5094,10 @@
       <c r="G6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5120,11 +5111,11 @@
       <c r="C7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="29"/>
@@ -5134,16 +5125,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="29"/>
@@ -5152,92 +5143,92 @@
       <c r="A9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="28" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" ht="23" customHeight="1" spans="1:9">
       <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:9">
       <c r="A11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:9">
       <c r="A12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:9">
       <c r="A13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6717,7 +6708,7 @@
   <sheetPr/>
   <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
